--- a/biology/Botanique/Dennstaedtia_punctilobula/Dennstaedtia_punctilobula.xlsx
+++ b/biology/Botanique/Dennstaedtia_punctilobula/Dennstaedtia_punctilobula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dennstaedtia punctilobula, avec comme nom commun dennstaedtie à lobules ponctués, est une espèce de fougères de la famille des Dennstaedtiaceae indigène de l'est de l'Amérique du Nord[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dennstaedtia punctilobula, avec comme nom commun dennstaedtie à lobules ponctués, est une espèce de fougères de la famille des Dennstaedtiaceae indigène de l'est de l'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une fougère possédant un rhizome; les frondes peuvent mesurer jusqu'à 1 m de haut, elles sont divisées trois fois; les rachis sont pubescents. Les fructifications se retrouvent à l'endos des frondes, ce sont des sores de petite taille, verts au départ, maturant vers le brun, ils sont saillants et seuls à l'extrémité des pinnules, parallèles les uns aux autres en bordure de limbe.
 Écraser les frondes produit une odeur de foin (le nom commun en anglais est hay-scented fern; dont la traduction est: fougère à odeur de foin). On retrouve généralement cette plante poussant en colonies denses.
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Canada, D. ponctulilobula est présente dans les Maritimes, ainsi qu'au Québec, jusqu'à 48° de latitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Canada, D. ponctulilobula est présente dans les Maritimes, ainsi qu'au Québec, jusqu'à 48° de latitude.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (23 mai 2013)[3] (liste brute contenant possiblement des synonymes):
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (23 mai 2013) (liste brute contenant possiblement des synonymes):
 forme Dennstaedtia punctilobula fo. cristata Clute
 forme Dennstaedtia punctilobula fo. nana Weath.
 forme Dennstaedtia punctilobula fo. poyseri Clute
